--- a/Tilty Hardware/Board Files/Tilty Duo:Quad/BOM.xlsx
+++ b/Tilty Hardware/Board Files/Tilty Duo:Quad/BOM.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tilty Duo BT" sheetId="1" r:id="rId1"/>
-    <sheet name="Tilty Quad BT" sheetId="4" r:id="rId2"/>
+    <sheet name="Tilty Duo No BT" sheetId="6" r:id="rId2"/>
+    <sheet name="Tilty Quad BT" sheetId="4" r:id="rId3"/>
+    <sheet name="Tilty Quad No BT" sheetId="7" r:id="rId4"/>
+    <sheet name="Possible Manufacturers" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="132">
   <si>
     <t>Part</t>
   </si>
@@ -160,9 +163,6 @@
     <t>RMCF0603JT470RCT-ND</t>
   </si>
   <si>
-    <t>Look to avnet.com for future large scale</t>
-  </si>
-  <si>
     <t>Avnet</t>
   </si>
   <si>
@@ -326,6 +326,99 @@
   </si>
   <si>
     <t>Cost per 50 boards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTST-C150KGKT </t>
+  </si>
+  <si>
+    <t>LTST-C150KGKT</t>
+  </si>
+  <si>
+    <t>MPL3115A2</t>
+  </si>
+  <si>
+    <t>CL05A475MQ5NRNC</t>
+  </si>
+  <si>
+    <t>Alibaba/ebay</t>
+  </si>
+  <si>
+    <t>Bluetooth Module (HC-05/09)</t>
+  </si>
+  <si>
+    <t>JP3, JP7</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>1x4 Female Header</t>
+  </si>
+  <si>
+    <t>JP9</t>
+  </si>
+  <si>
+    <t>952-1791-ND</t>
+  </si>
+  <si>
+    <t>C1, C2, C6, C10</t>
+  </si>
+  <si>
+    <t>Cost/board for 50 boards</t>
+  </si>
+  <si>
+    <t>RushPCB</t>
+  </si>
+  <si>
+    <t>Cost/board for 50</t>
+  </si>
+  <si>
+    <t>Ship time (days)</t>
+  </si>
+  <si>
+    <t>Screaming Circuits</t>
+  </si>
+  <si>
+    <t>PCB Assembly Express</t>
+  </si>
+  <si>
+    <t>Bittele</t>
+  </si>
+  <si>
+    <t>Silvtronics</t>
+  </si>
+  <si>
+    <t>PCB Fab Express</t>
+  </si>
+  <si>
+    <t>Totals:</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>Through Hole</t>
+  </si>
+  <si>
+    <t>Fine Pitch</t>
+  </si>
+  <si>
+    <t>QFN/Leadless</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -337,8 +430,8 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -416,7 +509,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -438,8 +531,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,14 +577,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="49">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -475,6 +624,20 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -484,6 +647,20 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -813,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P23"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -831,7 +1008,7 @@
     <col min="13" max="13" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,13 +1049,16 @@
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -913,10 +1093,10 @@
         <v>0.27929999999999999</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N2" s="11">
         <v>0.22320000000000001</v>
@@ -924,8 +1104,12 @@
       <c r="O2" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="15">
+        <f>D2*J2</f>
+        <v>0.2908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -961,11 +1145,13 @@
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3" s="6"/>
+      <c r="Q3" s="15">
+        <f>D3*J3</f>
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1000,10 +1186,10 @@
         <v>0.52790000000000004</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="11">
         <v>0.375</v>
@@ -1011,8 +1197,12 @@
       <c r="O4" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="15">
+        <f>J4*D4</f>
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1238,12 @@
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="15">
+        <f>D5*J5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="B6" s="9"/>
       <c r="D6" s="5"/>
       <c r="G6" s="2"/>
@@ -1058,8 +1252,9 @@
       <c r="J6" s="2"/>
       <c r="N6" s="11"/>
       <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1094,12 +1289,16 @@
         <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="15">
+        <f>J7*D7</f>
+        <v>4.6639999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1138,8 +1337,12 @@
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="15">
+        <f>D8*J8</f>
+        <v>0.18360000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1175,8 +1378,12 @@
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="15">
+        <f>D9*J9</f>
+        <v>0.54059999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="D10" s="5"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1184,25 +1391,26 @@
       <c r="J10" s="2"/>
       <c r="N10" s="11"/>
       <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1206</v>
       </c>
       <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>68</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
       </c>
       <c r="G11" s="2">
         <v>0.5</v>
@@ -1220,18 +1428,22 @@
         <v>0.252</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="15">
+        <f>D11*J11</f>
+        <v>0.31680000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12">
         <v>1206</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -1240,7 +1452,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2">
         <v>0.56000000000000005</v>
@@ -1258,10 +1470,17 @@
         <v>0.31</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="15">
+        <f>D12*J12</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1296,10 +1515,10 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
         <v>47</v>
-      </c>
-      <c r="M14" t="s">
-        <v>48</v>
       </c>
       <c r="N14" s="12">
         <v>2E-3</v>
@@ -1307,8 +1526,12 @@
       <c r="O14" s="10">
         <v>10000</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="15">
+        <f>D14*J14</f>
+        <v>5.16E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1343,10 +1566,10 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="L15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N15" s="12">
         <v>1.6000000000000001E-3</v>
@@ -1354,25 +1577,29 @@
       <c r="O15" s="10">
         <v>5000</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="15">
+        <f>D15*J15</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
         <v>52</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
       </c>
       <c r="G16" s="2">
         <v>0.05</v>
@@ -1390,10 +1617,10 @@
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N16" s="11">
         <v>1.1000000000000001E-3</v>
@@ -1401,16 +1628,20 @@
       <c r="O16" s="10">
         <v>5000</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="Q16" s="15">
+        <f>J16*D16</f>
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
@@ -1419,7 +1650,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2">
         <v>0.02</v>
@@ -1437,10 +1668,10 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="L17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N17" s="11">
         <v>1.6000000000000001E-3</v>
@@ -1448,16 +1679,20 @@
       <c r="O17" s="10">
         <v>5000</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="Q17" s="15">
+        <f>D17*J17</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -1466,7 +1701,7 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2">
         <v>0.02</v>
@@ -1484,10 +1719,10 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N18" s="11">
         <v>1.6000000000000001E-3</v>
@@ -1495,8 +1730,12 @@
       <c r="O18" s="10">
         <v>5000</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="Q18" s="15">
+        <f>D18*J18</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="B19" s="9"/>
       <c r="D19" s="5"/>
       <c r="G19" s="2"/>
@@ -1505,16 +1744,17 @@
       <c r="J19" s="2"/>
       <c r="N19" s="11"/>
       <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="5">
         <v>3</v>
@@ -1523,7 +1763,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="2">
         <v>0.1</v>
@@ -1541,10 +1781,10 @@
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="L20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N20" s="11">
         <v>3.7000000000000002E-3</v>
@@ -1552,25 +1792,29 @@
       <c r="O20" s="10">
         <v>10000</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="Q20" s="15">
+        <f>D20*J20</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
         <v>76</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>77</v>
       </c>
       <c r="G21" s="2">
         <v>0.1</v>
@@ -1588,10 +1832,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N21" s="11">
         <v>3.5000000000000001E-3</v>
@@ -1599,25 +1843,29 @@
       <c r="O21" s="10">
         <v>10000</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="Q21" s="15">
+        <f>D21*J21</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
         <v>78</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>79</v>
       </c>
       <c r="G22" s="2">
         <v>0.1</v>
@@ -1635,10 +1883,10 @@
         <v>1.26E-2</v>
       </c>
       <c r="L22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N22" s="11">
         <v>3.8999999999999998E-3</v>
@@ -1646,25 +1894,29 @@
       <c r="O22" s="10">
         <v>4000</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="Q22" s="15">
+        <f>J22*D22</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
         <v>81</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
       </c>
       <c r="G23" s="2">
         <v>0.1</v>
@@ -1682,10 +1934,10 @@
         <v>2.86E-2</v>
       </c>
       <c r="L23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N23" s="11">
         <v>9.1999999999999998E-3</v>
@@ -1693,8 +1945,12 @@
       <c r="O23" s="10">
         <v>4000</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="Q23" s="15">
+        <f>D23*J23</f>
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="B24" s="9"/>
       <c r="D24" s="5"/>
       <c r="G24" s="2"/>
@@ -1703,8 +1959,9 @@
       <c r="J24" s="2"/>
       <c r="N24" s="11"/>
       <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="Q24" s="15"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="B25" s="9"/>
       <c r="D25" s="5"/>
       <c r="G25" s="2"/>
@@ -1713,8 +1970,12 @@
       <c r="J25" s="2"/>
       <c r="N25" s="11"/>
       <c r="O25" s="10"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="Q25" s="15">
+        <f>SUM(Q2:Q23)</f>
+        <v>13.870799999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="B26" s="9"/>
       <c r="D26" s="13"/>
       <c r="G26" s="2"/>
@@ -1723,8 +1984,9 @@
       <c r="J26" s="2"/>
       <c r="N26" s="11"/>
       <c r="O26" s="10"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="R26" s="15"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="B27" s="9"/>
       <c r="D27" s="5"/>
       <c r="G27" s="2"/>
@@ -1733,8 +1995,9 @@
       <c r="J27" s="2"/>
       <c r="N27" s="11"/>
       <c r="O27" s="10"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="R27" s="15"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="B28" s="9"/>
       <c r="D28" s="5"/>
       <c r="G28" s="2"/>
@@ -1744,7 +2007,7 @@
       <c r="N28" s="11"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:18">
       <c r="B29" s="9"/>
       <c r="D29" s="5"/>
       <c r="G29" s="2"/>
@@ -1754,7 +2017,7 @@
       <c r="N29" s="11"/>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:18">
       <c r="B30" s="9"/>
       <c r="D30" s="5"/>
       <c r="G30" s="2"/>
@@ -1764,7 +2027,7 @@
       <c r="N30" s="11"/>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:18">
       <c r="B31" s="9"/>
       <c r="D31" s="5"/>
       <c r="G31" s="2"/>
@@ -1774,7 +2037,7 @@
       <c r="N31" s="11"/>
       <c r="O31" s="10"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:18">
       <c r="B32" s="9"/>
       <c r="D32" s="5"/>
       <c r="G32" s="2"/>
@@ -2071,7 +2334,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2082,17 +2344,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
@@ -2100,7 +2362,7 @@
     <col min="13" max="13" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2141,16 +2403,16 @@
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="Q1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2185,10 +2447,10 @@
         <v>0.27929999999999999</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N2" s="11">
         <v>0.22320000000000001</v>
@@ -2196,197 +2458,167 @@
       <c r="O2" s="10">
         <v>50</v>
       </c>
-      <c r="R2" s="15">
+      <c r="Q2" s="15">
         <f>D2*J2</f>
         <v>0.2908</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.52790000000000004</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="15">
+        <f>J3*D3</f>
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2">
-        <v>5.99</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5.99</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4.12</v>
-      </c>
-      <c r="J3" s="2">
-        <v>4.12</v>
-      </c>
-      <c r="K3" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="G4" s="7">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L4" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="10"/>
-      <c r="R3" s="15">
-        <f>D3*J3</f>
-        <v>4.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.52790000000000004</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="O4" s="10">
-        <v>1</v>
-      </c>
-      <c r="R4" s="15">
-        <f>J4*D4</f>
-        <v>0.60599999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="N4" s="11"/>
+      <c r="O4" s="10"/>
+      <c r="Q4" s="15">
+        <f>D4*J4</f>
         <v>2.5</v>
       </c>
-      <c r="I5" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="9"/>
+      <c r="D5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
       <c r="N5" s="11"/>
       <c r="O5" s="10"/>
-      <c r="R5" s="15">
-        <f t="shared" ref="R5:R27" si="0">D5*J5</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="I6" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
+        <v>1.43</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1.1659999999999999</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="10"/>
-      <c r="R6" s="15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="Q6" s="15">
+        <f>D6*J6</f>
+        <v>4.6639999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -2395,128 +2627,141 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2.88</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2.72</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2.56</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2.56</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="R7" s="15">
-        <f t="shared" ref="R7:R27" si="1">J7*D7</f>
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="R8" s="15"/>
-    </row>
-    <row r="9" spans="1:18">
+        <v>112</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1.06</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="O7" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q7" s="15">
+        <f>J7*D7</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="10"/>
+      <c r="Q8" s="15">
+        <f>D8*J8</f>
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1.43</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1.1659999999999999</v>
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.54059999999999997</v>
       </c>
       <c r="K9" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" t="s">
-        <v>60</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="10"/>
-      <c r="R9" s="15">
-        <f t="shared" ref="R8:R27" si="2">D9*J9</f>
-        <v>4.6639999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>33</v>
-      </c>
+      <c r="Q9" s="15">
+        <f>J9*D9</f>
+        <v>0.54059999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="D10" s="5"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="N10" s="11"/>
       <c r="O10" s="10"/>
-      <c r="R10" s="15">
-        <f t="shared" ref="R10:R27" si="3">J10*D10</f>
-        <v>0.18360000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>36</v>
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>1206</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -2525,94 +2770,94 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2">
-        <v>0.61</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H11" s="2">
-        <v>0.56399999999999995</v>
+        <v>0.43</v>
       </c>
       <c r="I11" s="2">
-        <v>0.56399999999999995</v>
+        <v>0.36</v>
       </c>
       <c r="J11" s="2">
-        <v>0.54059999999999997</v>
+        <v>0.36</v>
       </c>
       <c r="K11" s="2">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="10"/>
-      <c r="R11" s="15">
-        <f t="shared" ref="R11:R27" si="4">D11*J11</f>
-        <v>0.54059999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="D12" s="5"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="10"/>
-      <c r="R12" s="15"/>
-    </row>
-    <row r="13" spans="1:18">
+        <v>0.31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="15">
+        <f>J11*D11</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13">
-        <v>1206</v>
+        <v>38</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H13" s="2">
-        <v>0.38900000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I13" s="2">
-        <v>0.31680000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="J13" s="2">
-        <v>0.31680000000000003</v>
+        <v>1.72E-2</v>
       </c>
       <c r="K13" s="2">
-        <v>0.252</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
         <v>47</v>
       </c>
-      <c r="M13" t="s">
-        <v>100</v>
-      </c>
-      <c r="R13" s="15">
-        <f t="shared" ref="R13:R27" si="5">J13*D13</f>
-        <v>0.31680000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="N13" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="O13" s="10">
+        <v>10000</v>
+      </c>
+      <c r="Q13" s="15">
+        <f>J13*D13</f>
+        <v>3.44E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14">
-        <v>1206</v>
+        <v>50</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -2621,199 +2866,213 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G14" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.05</v>
       </c>
       <c r="H14" s="2">
-        <v>0.43</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="I14" s="2">
-        <v>0.36</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>0.36</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="K14" s="2">
-        <v>0.31</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>100</v>
-      </c>
-      <c r="R14" s="15">
-        <f t="shared" ref="R14:R27" si="6">D14*J14</f>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="R15" s="15"/>
-    </row>
-    <row r="16" spans="1:18">
+        <v>53</v>
+      </c>
+      <c r="N14" s="11">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="O14" s="10">
+        <v>5000</v>
+      </c>
+      <c r="Q14" s="15">
+        <f>D14*J14</f>
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="O15" s="10">
+        <v>5000</v>
+      </c>
+      <c r="Q15" s="15">
+        <f>J15*D15</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="H16" s="2">
-        <v>0.1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I16" s="2">
-        <v>0.1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>1.72E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="K16" s="2">
-        <v>1.3100000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" s="12">
-        <v>2E-3</v>
+        <v>62</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="O16" s="10">
-        <v>10000</v>
-      </c>
-      <c r="R16" s="15">
-        <f t="shared" ref="R16:R27" si="7">J16*D16</f>
-        <v>5.16E-2</v>
+        <v>5000</v>
+      </c>
+      <c r="Q16" s="15">
+        <f>D16*J16</f>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="J17" s="2">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="K17" s="2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="L17" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="12">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="O17" s="10">
-        <v>5000</v>
-      </c>
-      <c r="R17" s="15">
-        <f t="shared" ref="R17:R27" si="8">D17*J17</f>
-        <v>9.1999999999999998E-3</v>
-      </c>
+      <c r="B17" s="9"/>
+      <c r="D17" s="5"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="10"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="11">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="O18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="Q18" s="15">
+        <f>D18*J18</f>
         <v>0.05</v>
-      </c>
-      <c r="H18" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="I18" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J18" s="2">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="L18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="11">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="O18" s="10">
-        <v>5000</v>
-      </c>
-      <c r="R18" s="15">
-        <f t="shared" si="8"/>
-        <v>2.0799999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -2822,49 +3081,49 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="H19" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="I19" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J19" s="2">
-        <v>9.1999999999999998E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="K19" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="L19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="N19" s="11">
-        <v>1.6000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="O19" s="10">
-        <v>5000</v>
-      </c>
-      <c r="R19" s="15">
-        <f t="shared" ref="R19:R27" si="9">J19*D19</f>
-        <v>9.1999999999999998E-3</v>
+        <v>10000</v>
+      </c>
+      <c r="Q19" s="15">
+        <f>J19*D19</f>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -2873,336 +3132,158 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G20" s="2">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="H20" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I20" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="J20" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1.26E-2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="11">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="O20" s="10">
+        <v>4000</v>
+      </c>
+      <c r="Q20" s="15">
+        <f>D20*J20</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2.86E-2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" s="11">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="K20" s="2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="L20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" t="s">
-        <v>63</v>
-      </c>
-      <c r="N20" s="11">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="O20" s="10">
-        <v>5000</v>
-      </c>
-      <c r="R20" s="15">
-        <f t="shared" ref="R20:R27" si="10">D20*J20</f>
-        <v>9.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="R21" s="15"/>
+      <c r="O21" s="10">
+        <v>4000</v>
+      </c>
+      <c r="Q21" s="15">
+        <f>J21*D21</f>
+        <v>6.2E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J22" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="L22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" t="s">
-        <v>74</v>
-      </c>
-      <c r="N22" s="11">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="O22" s="10">
-        <v>10000</v>
-      </c>
-      <c r="R22" s="15">
-        <f t="shared" ref="R22:R27" si="11">J22*D22</f>
-        <v>0.125</v>
-      </c>
+      <c r="B22" s="9"/>
+      <c r="D22" s="5"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="10"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2.4E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2.4E-2</v>
-      </c>
-      <c r="J23" s="2">
-        <v>2.4E-2</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="L23" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" t="s">
-        <v>77</v>
-      </c>
-      <c r="N23" s="11">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="O23" s="10">
-        <v>10000</v>
-      </c>
-      <c r="R23" s="15">
-        <f t="shared" ref="R23:R27" si="12">D23*J23</f>
-        <v>2.4E-2</v>
+      <c r="B23" s="9"/>
+      <c r="D23" s="5"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="10"/>
+      <c r="Q23" s="15">
+        <f>SUM(Q2:Q21)</f>
+        <v>10.051999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I24" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J24" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1.26E-2</v>
-      </c>
-      <c r="L24" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" t="s">
-        <v>79</v>
-      </c>
-      <c r="N24" s="11">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="O24" s="10">
-        <v>4000</v>
-      </c>
-      <c r="R24" s="15">
-        <f t="shared" si="12"/>
-        <v>2.8000000000000001E-2</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="D24" s="13"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="10"/>
+      <c r="R24" s="15"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>6.2E-2</v>
-      </c>
-      <c r="I25" s="2">
-        <v>6.2E-2</v>
-      </c>
-      <c r="J25" s="2">
-        <v>6.2E-2</v>
-      </c>
-      <c r="K25" s="2">
-        <v>2.86E-2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" t="s">
-        <v>82</v>
-      </c>
-      <c r="N25" s="11">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="O25" s="10">
-        <v>4000</v>
-      </c>
-      <c r="R25" s="15">
-        <f t="shared" ref="R25:R27" si="13">J25*D25</f>
-        <v>6.2E-2</v>
-      </c>
+      <c r="B25" s="9"/>
+      <c r="D25" s="5"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="10"/>
+      <c r="R25" s="15"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I26" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="J26" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1.46E-2</v>
-      </c>
-      <c r="L26" t="s">
-        <v>47</v>
-      </c>
-      <c r="M26" t="s">
-        <v>100</v>
-      </c>
-      <c r="R26" s="15">
-        <f t="shared" ref="R26:R27" si="14">D26*J26</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
+      <c r="B26" s="9"/>
+      <c r="D26" s="5"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="10"/>
+      <c r="R26" s="15"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="L27" t="s">
-        <v>47</v>
-      </c>
-      <c r="M27" t="s">
-        <v>100</v>
-      </c>
-      <c r="R27" s="15">
-        <f t="shared" si="14"/>
-        <v>0.35</v>
-      </c>
+      <c r="B27" s="9"/>
+      <c r="D27" s="5"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:18">
       <c r="B28" s="9"/>
@@ -3213,25 +3294,47 @@
       <c r="J28" s="2"/>
       <c r="N28" s="11"/>
       <c r="O28" s="10"/>
+      <c r="R28" s="15"/>
     </row>
     <row r="29" spans="1:18">
       <c r="B29" s="9"/>
-      <c r="R29" s="15">
-        <f>SUM(R2:R27)</f>
-        <v>17.862800000000004</v>
-      </c>
+      <c r="D29" s="5"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:18">
       <c r="B30" s="9"/>
-      <c r="L30" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="D30" s="5"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:18">
       <c r="B31" s="9"/>
+      <c r="D31" s="5"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:18">
       <c r="B32" s="9"/>
+      <c r="D32" s="5"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="10"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="9"/>
@@ -3444,6 +3547,1518 @@
       <c r="O53" s="10"/>
     </row>
     <row r="54" spans="2:15">
+      <c r="D54" s="5"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="10"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="D55" s="5"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="O55" s="10"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="D56" s="5"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="D57" s="5"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="D58" s="5"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="D59" s="5"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="D60" s="5"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="D61" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.2908</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="O2" s="10">
+        <v>50</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="15">
+        <f>D2*J2</f>
+        <v>0.2908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4.12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4.12</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="15">
+        <f>D3*J3</f>
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.52790000000000004</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="O4" s="10">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="15">
+        <f>J4*D4</f>
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="15">
+        <f>D5*J5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="15">
+        <f>D6*J6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="17">
+        <v>1.97</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="15">
+        <f>J7*D7</f>
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="16"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="15">
+        <f>D9*J9</f>
+        <v>4.6639999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="15">
+        <f>J10*D10</f>
+        <v>0.18360000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.54059999999999997</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="15">
+        <f>D11*J11</f>
+        <v>0.54059999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="16"/>
+      <c r="D12" s="5"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="27">
+        <v>1206</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="12">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="O13" s="18">
+        <v>3000</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="15">
+        <f>J13*D13</f>
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="27">
+        <v>1206</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="15">
+        <f>D14*J14</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="16"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.72E-2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="O16" s="10">
+        <v>10000</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="15">
+        <f>J16*D16</f>
+        <v>5.16E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="12">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="O17" s="10">
+        <v>5000</v>
+      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="15">
+        <f>D17*J17</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="11">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="O18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="15">
+        <f>D18*J18</f>
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="K19" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="O19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="15">
+        <f>J19*D19</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="K20" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="O20" s="10">
+        <v>5000</v>
+      </c>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="15">
+        <f>D20*J20</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="16"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="11">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="O22" s="10">
+        <v>10000</v>
+      </c>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="15">
+        <f>J22*D22</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" s="11">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="O23" s="10">
+        <v>10000</v>
+      </c>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="15">
+        <f>D23*J23</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.26E-2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="11">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="O24" s="10">
+        <v>4000</v>
+      </c>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="15">
+        <f>D24*J24</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2.86E-2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="11">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="O25" s="10">
+        <v>4000</v>
+      </c>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="15">
+        <f>J25*D25</f>
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1.46E-2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" s="11">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="O26" s="20">
+        <v>10000</v>
+      </c>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="15">
+        <f>D26*J26</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.1928</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.1401</v>
+      </c>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" t="s">
+        <v>104</v>
+      </c>
+      <c r="N27" s="11">
+        <v>2.69E-2</v>
+      </c>
+      <c r="O27" s="20">
+        <v>10000</v>
+      </c>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="15">
+        <f>D27*J27</f>
+        <v>0.15759999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="B28" s="9"/>
+      <c r="D28" s="5"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="B29" s="9"/>
+      <c r="Q29" s="15">
+        <f>SUM(Q2:Q27)</f>
+        <v>17.6206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="B30" s="9"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="B36" s="9"/>
+      <c r="D36" s="5"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="B37" s="9"/>
+      <c r="D37" s="5"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="B38" s="9"/>
+      <c r="D38" s="5"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="B39" s="9"/>
+      <c r="D39" s="5"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="B40" s="9"/>
+      <c r="D40" s="5"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="B41" s="9"/>
+      <c r="D41" s="5"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="B42" s="9"/>
+      <c r="D42" s="5"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="B43" s="9"/>
+      <c r="D43" s="5"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="B44" s="9"/>
+      <c r="D44" s="5"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="B45" s="9"/>
+      <c r="D45" s="5"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="B46" s="9"/>
+      <c r="D46" s="5"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="B47" s="9"/>
+      <c r="D47" s="5"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="B48" s="9"/>
+      <c r="D48" s="5"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="9"/>
+      <c r="D49" s="5"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="9"/>
+      <c r="D50" s="5"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="9"/>
+      <c r="D51" s="5"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="9"/>
+      <c r="D52" s="5"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="9"/>
+      <c r="D53" s="5"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="10"/>
+    </row>
+    <row r="54" spans="2:15">
       <c r="B54" s="9"/>
       <c r="D54" s="5"/>
       <c r="G54" s="2"/>
@@ -3520,7 +5135,1601 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="B31 B16:B27 B32:B35" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.2908</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="O2" s="10">
+        <v>50</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="15">
+        <f>D2*J2</f>
+        <v>0.2908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.52790000000000004</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="15">
+        <f>J3*D3</f>
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="15">
+        <f>D4*J4</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="15">
+        <f>D5*J5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1.97</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="15">
+        <f>J6*D6</f>
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="15">
+        <f>D8*J8</f>
+        <v>4.6639999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1.06</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="O9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="15">
+        <f>J9*D9</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="15">
+        <f>D10*J10</f>
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.54059999999999997</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="15">
+        <f>J11*D11</f>
+        <v>0.54059999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="D12" s="5"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>1206</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="15">
+        <f>D13*J13</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="P14" s="19"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.72E-2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="O15" s="10">
+        <v>10000</v>
+      </c>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="O16" s="10">
+        <v>5000</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="15">
+        <f>D16*J16</f>
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="O17" s="10">
+        <v>5000</v>
+      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="15">
+        <f>J17*D17</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="O18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="15">
+        <f>D18*J18</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="P19" s="19"/>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" s="11">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="O20" s="10">
+        <v>10000</v>
+      </c>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="15">
+        <f>D20*J20</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="11">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="O21" s="10">
+        <v>10000</v>
+      </c>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="15">
+        <f>D21*J21</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1.26E-2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="11">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="O22" s="10">
+        <v>4000</v>
+      </c>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="15">
+        <f>J22*D22</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2.86E-2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" s="11">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="O23" s="10">
+        <v>4000</v>
+      </c>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.46E-2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" s="11">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="O24" s="20">
+        <v>10000</v>
+      </c>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="15">
+        <f>D24*J24</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.1928</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.1401</v>
+      </c>
+      <c r="L25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" t="s">
+        <v>104</v>
+      </c>
+      <c r="N25" s="11">
+        <v>2.69E-2</v>
+      </c>
+      <c r="O25" s="20">
+        <v>10000</v>
+      </c>
+      <c r="Q25" s="15">
+        <f>J25*D25</f>
+        <v>0.15759999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="B26" s="9"/>
+      <c r="D26" s="5"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="10"/>
+      <c r="Q26" s="15"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="B28" s="9"/>
+      <c r="L28" s="6"/>
+      <c r="Q28" s="15">
+        <f>SUM(Q2:Q25)</f>
+        <v>13.755199999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" s="9"/>
+      <c r="D31" s="5"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="B32" s="9"/>
+      <c r="D32" s="5"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="9"/>
+      <c r="D33" s="5"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="9"/>
+      <c r="D34" s="5"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="9"/>
+      <c r="D35" s="5"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="9"/>
+      <c r="D36" s="5"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="9"/>
+      <c r="D37" s="5"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="9"/>
+      <c r="D38" s="5"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="9"/>
+      <c r="D39" s="5"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="9"/>
+      <c r="D40" s="5"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="9"/>
+      <c r="D41" s="5"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="9"/>
+      <c r="D42" s="5"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="9"/>
+      <c r="D43" s="5"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="9"/>
+      <c r="D44" s="5"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="9"/>
+      <c r="D45" s="5"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="9"/>
+      <c r="D46" s="5"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="9"/>
+      <c r="D47" s="5"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="9"/>
+      <c r="D48" s="5"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="9"/>
+      <c r="D49" s="5"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="9"/>
+      <c r="D50" s="5"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="9"/>
+      <c r="D51" s="5"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="9"/>
+      <c r="D52" s="5"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="9"/>
+      <c r="D53" s="5"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="10"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="D54" s="5"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="10"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="D55" s="5"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="O55" s="10"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="D56" s="5"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="D57" s="5"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="D58" s="5"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="D59" s="5"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="D60" s="5"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="D61" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="23">
+        <v>17.79</v>
+      </c>
+      <c r="C2" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="23">
+        <v>30.82</v>
+      </c>
+      <c r="C3" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="23">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="C4" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="23">
+        <v>23.87</v>
+      </c>
+      <c r="C5" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="23">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C6" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="23">
+        <v>35.03</v>
+      </c>
+      <c r="C7" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="23"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="23"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Tilty Hardware/Board Files/Tilty Duo:Quad/BOM.xlsx
+++ b/Tilty Hardware/Board Files/Tilty Duo:Quad/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-38400" yWindow="-440" windowWidth="38400" windowHeight="24000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tilty Duo BT" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="133">
   <si>
     <t>Part</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Check</t>
   </si>
   <si>
-    <t>Cost per 50 boards</t>
-  </si>
-  <si>
     <t xml:space="preserve">LTST-C150KGKT </t>
   </si>
   <si>
@@ -409,9 +406,6 @@
     <t>QFN/Leadless</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -419,6 +413,15 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>Prices Are based on a full population of the Tilty Quad w/ BT</t>
+  </si>
+  <si>
+    <t>Prices should drop significantly without through-hole parts</t>
+  </si>
+  <si>
+    <t>Awesomely cheap PCB manufacture (&lt;$2/board)</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -559,8 +562,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,8 +618,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="53">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -638,6 +652,8 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -661,6 +677,8 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -993,7 +1011,7 @@
   <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1055,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2346,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2409,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2612,22 +2630,22 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>111</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>112</v>
       </c>
       <c r="G7" s="14">
         <v>1.06</v>
@@ -2666,7 +2684,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="4">
         <v>0.16666666666666666</v>
@@ -2806,7 +2824,7 @@
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="5">
         <v>2</v>
@@ -3021,7 +3039,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
@@ -3254,7 +3272,12 @@
       <c r="R24" s="15"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="B25" s="9"/>
+      <c r="A25" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="32">
+        <v>16</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -3265,7 +3288,12 @@
       <c r="R25" s="15"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="B26" s="9"/>
+      <c r="A26" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="31">
+        <v>8</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3276,7 +3304,12 @@
       <c r="R26" s="15"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="B27" s="9"/>
+      <c r="A27" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="31">
+        <v>8</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3286,7 +3319,12 @@
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="9"/>
+      <c r="A28" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="31">
+        <v>5</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3297,7 +3335,12 @@
       <c r="R28" s="15"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="9"/>
+      <c r="A29" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="31">
+        <v>1</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -3603,6 +3646,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="B13:B21" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3616,7 +3662,7 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3679,7 +3725,7 @@
         <v>2</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3736,7 +3782,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>36</v>
@@ -3766,7 +3812,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="10"/>
@@ -3953,7 +3999,7 @@
         <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N7" s="17">
         <v>1.97</v>
@@ -4133,7 +4179,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="2">
         <v>0.37</v>
@@ -4154,7 +4200,7 @@
         <v>46</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N13" s="12">
         <v>4.6899999999999997E-2</v>
@@ -4782,7 +4828,7 @@
         <v>46</v>
       </c>
       <c r="M27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N27" s="11">
         <v>2.69E-2</v>
@@ -4819,26 +4865,26 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="B31" s="31">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D33" s="5"/>
       <c r="G33" s="2"/>
@@ -4850,10 +4896,10 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D34" s="5"/>
       <c r="G34" s="2"/>
@@ -4865,10 +4911,10 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D35" s="5"/>
       <c r="G35" s="2"/>
@@ -5136,7 +5182,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="B31 B16:B27 B32:B35" numberStoredAsText="1"/>
+    <ignoredError sqref="B16:B27 B32:B35" numberStoredAsText="1"/>
+    <ignoredError sqref="Q25 Q19 Q10 Q4" formula="1"/>
+    <ignoredError sqref="Q29" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5151,7 +5199,7 @@
   <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5214,7 +5262,7 @@
         <v>2</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5446,7 +5494,7 @@
         <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N6" s="17">
         <v>1.97</v>
@@ -5511,22 +5559,22 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
         <v>111</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>112</v>
       </c>
       <c r="G9" s="14">
         <v>1.06</v>
@@ -5566,7 +5614,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="4">
         <v>0.16666666666666666</v>
@@ -5714,7 +5762,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="5">
         <v>2</v>
@@ -5923,7 +5971,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="5">
         <v>4</v>
@@ -6210,7 +6258,7 @@
         <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N25" s="11">
         <v>2.69E-2</v>
@@ -6548,10 +6596,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6561,124 +6609,130 @@
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="23">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="C3" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="21" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="23">
-        <v>17.79</v>
-      </c>
-      <c r="C2" s="24">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="23">
+      <c r="B4" s="23">
         <v>30.82</v>
-      </c>
-      <c r="C3" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="23">
-        <v>40.590000000000003</v>
       </c>
       <c r="C4" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="23">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="C5" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="23">
+        <v>23.87</v>
+      </c>
+      <c r="C6" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="23">
-        <v>23.87</v>
-      </c>
-      <c r="C5" s="24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="25" t="s">
+      <c r="B7" s="23">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C7" s="24">
+        <v>15</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="23">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="C6" s="24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="23">
+      <c r="B8" s="23">
         <v>35.03</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C8" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-    </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" s="21"/>
       <c r="B10" s="23"/>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" s="21"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6">
       <c r="A12" s="21"/>
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13" s="21"/>
       <c r="B13" s="23"/>
       <c r="C13" s="24"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" s="21"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6">
       <c r="A15" s="21"/>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16" s="21"/>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
